--- a/Separa unidades/Unidades/Spina.xlsx
+++ b/Separa unidades/Unidades/Spina.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="40">
   <si>
     <t>ID DISP.</t>
   </si>
@@ -34,6 +34,12 @@
     <t>ID. PACIENTE</t>
   </si>
   <si>
+    <t>Situação</t>
+  </si>
+  <si>
+    <t>Foi atendido</t>
+  </si>
+  <si>
     <t>15/04/2021</t>
   </si>
   <si>
@@ -76,9 +82,6 @@
     <t>14/06/2021</t>
   </si>
   <si>
-    <t>16/06/2021</t>
-  </si>
-  <si>
     <t>17/06/2021</t>
   </si>
   <si>
@@ -97,7 +100,40 @@
     <t>25/06/2021</t>
   </si>
   <si>
+    <t>28/06/2021</t>
+  </si>
+  <si>
+    <t>29/06/2021</t>
+  </si>
+  <si>
+    <t>30/06/2021</t>
+  </si>
+  <si>
+    <t>01/07/2021</t>
+  </si>
+  <si>
+    <t>02/07/2021</t>
+  </si>
+  <si>
+    <t>05/07/2021</t>
+  </si>
+  <si>
+    <t>06/07/2021</t>
+  </si>
+  <si>
     <t>UNIDADE ESF DR LUIZ SPINA</t>
+  </si>
+  <si>
+    <t>PACIENTE SEM SUSPEITA</t>
+  </si>
+  <si>
+    <t>PACIENTE COM SUSPEITA EM ABERTO</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>NÃO</t>
   </si>
 </sst>
 </file>
@@ -455,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,19 +516,25 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1868782</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>7122217</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -500,19 +542,25 @@
       <c r="F2">
         <v>30854</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1867850</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>7122217</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -520,59 +568,77 @@
       <c r="F3">
         <v>61123</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
+        <v>1867844</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>7122217</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>152801</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
         <v>1868784</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>7122217</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>7122217</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>212044</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>1867844</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>7122217</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>152801</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>1870171</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>7122217</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -580,19 +646,25 @@
       <c r="F6">
         <v>257489</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>1871369</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>7122217</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -600,119 +672,155 @@
       <c r="F7">
         <v>142334</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
+        <v>1878863</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>7122217</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>148890</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>1879421</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>7122217</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>81207</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
         <v>1878811</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>7122217</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>7122217</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>22078</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>1878863</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>7122217</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>148890</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>1879421</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>7122217</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>81207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
+        <v>1903346</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>7122217</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>110334</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
         <v>1903368</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>7122217</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>7122217</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
         <v>109891</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>1903346</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>7122217</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>110334</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>1903348</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>7122217</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -720,19 +828,25 @@
       <c r="F13">
         <v>108571</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>1904748</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>7122217</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -740,159 +854,207 @@
       <c r="F14">
         <v>83318</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
+        <v>1911616</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>7122217</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2693</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>1911614</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>7122217</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>263906</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
         <v>1912043</v>
       </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15">
-        <v>7122217</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>7122217</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>145578</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>1911616</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16">
-        <v>7122217</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>2693</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
         <v>1911622</v>
       </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17">
-        <v>7122217</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>7122217</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
         <v>89490</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>1911614</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18">
-        <v>7122217</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>263906</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
+        <v>1913822</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>7122217</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>220022</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>1913935</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>7122217</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2070</v>
+      </c>
+      <c r="G20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
         <v>1913737</v>
       </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19">
-        <v>7122217</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>7122217</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
         <v>19226</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>1913822</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20">
-        <v>7122217</v>
-      </c>
-      <c r="D20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>220022</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>1913935</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21">
-        <v>7122217</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>1916322</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C22">
         <v>7122217</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -900,39 +1062,51 @@
       <c r="F22">
         <v>74678</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
-        <v>1919457</v>
+        <v>1919465</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C23">
         <v>7122217</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>187456</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>80309</v>
+      </c>
+      <c r="G23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>1919451</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C24">
         <v>7122217</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -940,139 +1114,181 @@
       <c r="F24">
         <v>266511</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
-        <v>1919465</v>
+        <v>1919457</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C25">
         <v>7122217</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25">
-        <v>80309</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>187456</v>
+      </c>
+      <c r="G25" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
+        <v>1923675</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26">
+        <v>7122217</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>13812</v>
+      </c>
+      <c r="G26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
         <v>1923670</v>
       </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26">
-        <v>7122217</v>
-      </c>
-      <c r="D26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>7122217</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
         <v>28704</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>1923675</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27">
-        <v>7122217</v>
-      </c>
-      <c r="D27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>13812</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
-        <v>1938931</v>
+        <v>1938928</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C28">
         <v>7122217</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28">
-        <v>204729</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>28431</v>
+      </c>
+      <c r="G28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
-        <v>1938937</v>
+        <v>1938958</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C29">
         <v>7122217</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29">
-        <v>125504</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>67512</v>
+      </c>
+      <c r="G29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
-        <v>1938947</v>
+        <v>1938953</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C30">
         <v>7122217</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30">
-        <v>60705</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>306120</v>
+      </c>
+      <c r="G30" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>1938950</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C31">
         <v>7122217</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1080,79 +1296,103 @@
       <c r="F31">
         <v>67787</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
-        <v>1938953</v>
+        <v>1938947</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C32">
         <v>7122217</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32">
-        <v>306120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>60705</v>
+      </c>
+      <c r="G32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
-        <v>1938958</v>
+        <v>1938937</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C33">
         <v>7122217</v>
       </c>
       <c r="D33" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33">
-        <v>67512</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>125504</v>
+      </c>
+      <c r="G33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
-        <v>1938928</v>
+        <v>1938931</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C34">
         <v>7122217</v>
       </c>
       <c r="D34" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34">
-        <v>28431</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>204729</v>
+      </c>
+      <c r="G34" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>1938930</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C35">
         <v>7122217</v>
       </c>
       <c r="D35" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1160,19 +1400,25 @@
       <c r="F35">
         <v>44887</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>1940942</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C36">
         <v>7122217</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1180,99 +1426,129 @@
       <c r="F36">
         <v>50656</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
+        <v>1943469</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37">
+        <v>7122217</v>
+      </c>
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>212804</v>
+      </c>
+      <c r="G37" t="s">
+        <v>36</v>
+      </c>
+      <c r="H37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
         <v>1943329</v>
       </c>
-      <c r="B37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37">
-        <v>7122217</v>
-      </c>
-      <c r="D37" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38">
+        <v>7122217</v>
+      </c>
+      <c r="D38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
         <v>52196</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
-        <v>1943469</v>
-      </c>
-      <c r="B38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38">
-        <v>7122217</v>
-      </c>
-      <c r="D38" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>212804</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" t="s">
+        <v>36</v>
+      </c>
+      <c r="H38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
-        <v>1948275</v>
+        <v>1949683</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C39">
         <v>7122217</v>
       </c>
       <c r="D39" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39">
-        <v>219990</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>26126</v>
+      </c>
+      <c r="G39" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
-        <v>1949683</v>
+        <v>1953802</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C40">
         <v>7122217</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40">
-        <v>26126</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>28431</v>
+      </c>
+      <c r="G40" t="s">
+        <v>36</v>
+      </c>
+      <c r="H40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>1954229</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C41">
         <v>7122217</v>
       </c>
       <c r="D41" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1280,119 +1556,155 @@
       <c r="F41">
         <v>81297</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" t="s">
+        <v>36</v>
+      </c>
+      <c r="H41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
+        <v>1953946</v>
+      </c>
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42">
+        <v>7122217</v>
+      </c>
+      <c r="D42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>205629</v>
+      </c>
+      <c r="G42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>1954221</v>
+      </c>
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43">
+        <v>7122217</v>
+      </c>
+      <c r="D43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>124571</v>
+      </c>
+      <c r="G43" t="s">
+        <v>36</v>
+      </c>
+      <c r="H43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
         <v>1954222</v>
       </c>
-      <c r="B42" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42">
-        <v>7122217</v>
-      </c>
-      <c r="D42" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44">
+        <v>7122217</v>
+      </c>
+      <c r="D44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
         <v>318923</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
+      <c r="G44" t="s">
+        <v>36</v>
+      </c>
+      <c r="H44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
         <v>1954224</v>
       </c>
-      <c r="B43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43">
-        <v>7122217</v>
-      </c>
-      <c r="D43" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45">
+        <v>7122217</v>
+      </c>
+      <c r="D45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
         <v>308435</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
-        <v>1953946</v>
-      </c>
-      <c r="B44" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44">
-        <v>7122217</v>
-      </c>
-      <c r="D44" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>205629</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
-        <v>1954221</v>
-      </c>
-      <c r="B45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45">
-        <v>7122217</v>
-      </c>
-      <c r="D45" t="s">
-        <v>27</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>124571</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" t="s">
+        <v>36</v>
+      </c>
+      <c r="H45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
-        <v>1953802</v>
+        <v>1955791</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C46">
         <v>7122217</v>
       </c>
       <c r="D46" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46">
-        <v>28431</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>313733</v>
+      </c>
+      <c r="G46" t="s">
+        <v>36</v>
+      </c>
+      <c r="H46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>1955786</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C47">
         <v>7122217</v>
       </c>
       <c r="D47" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -1400,99 +1712,129 @@
       <c r="F47">
         <v>80451</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47" t="s">
+        <v>36</v>
+      </c>
+      <c r="H47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
+        <v>1956521</v>
+      </c>
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48">
+        <v>7122217</v>
+      </c>
+      <c r="D48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>89786</v>
+      </c>
+      <c r="G48" t="s">
+        <v>36</v>
+      </c>
+      <c r="H48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>1955776</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49">
+        <v>7122217</v>
+      </c>
+      <c r="D49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>51142</v>
+      </c>
+      <c r="G49" t="s">
+        <v>36</v>
+      </c>
+      <c r="H49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
         <v>1956458</v>
       </c>
-      <c r="B48" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48">
-        <v>7122217</v>
-      </c>
-      <c r="D48" t="s">
-        <v>27</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48">
+      <c r="B50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50">
+        <v>7122217</v>
+      </c>
+      <c r="D50" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
         <v>55229</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>1956521</v>
-      </c>
-      <c r="B49" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49">
-        <v>7122217</v>
-      </c>
-      <c r="D49" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <v>89786</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>1955791</v>
-      </c>
-      <c r="B50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C50">
-        <v>7122217</v>
-      </c>
-      <c r="D50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>313733</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50" t="s">
+        <v>36</v>
+      </c>
+      <c r="H50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
-        <v>1955776</v>
+        <v>1957421</v>
       </c>
       <c r="B51" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C51">
         <v>7122217</v>
       </c>
       <c r="D51" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51">
-        <v>51142</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>268157</v>
+      </c>
+      <c r="G51" t="s">
+        <v>36</v>
+      </c>
+      <c r="H51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>1958157</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C52">
         <v>7122217</v>
       </c>
       <c r="D52" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -1500,219 +1842,285 @@
       <c r="F52">
         <v>335533</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52" t="s">
+        <v>36</v>
+      </c>
+      <c r="H52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53">
-        <v>1957421</v>
+        <v>1957905</v>
       </c>
       <c r="B53" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C53">
         <v>7122217</v>
       </c>
       <c r="D53" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>25802</v>
+      </c>
+      <c r="G53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <v>1959053</v>
+      </c>
+      <c r="B54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54">
+        <v>7122217</v>
+      </c>
+      <c r="D54" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>147722</v>
+      </c>
+      <c r="G54" t="s">
+        <v>36</v>
+      </c>
+      <c r="H54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <v>1959198</v>
+      </c>
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55">
+        <v>7122217</v>
+      </c>
+      <c r="D55" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>62832</v>
+      </c>
+      <c r="G55" t="s">
+        <v>36</v>
+      </c>
+      <c r="H55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <v>1958667</v>
+      </c>
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56">
+        <v>7122217</v>
+      </c>
+      <c r="D56" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>294023</v>
+      </c>
+      <c r="G56" t="s">
+        <v>36</v>
+      </c>
+      <c r="H56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <v>1959115</v>
+      </c>
+      <c r="B57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57">
+        <v>7122217</v>
+      </c>
+      <c r="D57" t="s">
+        <v>35</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>247787</v>
+      </c>
+      <c r="G57" t="s">
+        <v>36</v>
+      </c>
+      <c r="H57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58">
+        <v>1960596</v>
+      </c>
+      <c r="B58" t="s">
         <v>27</v>
       </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53">
-        <v>268157</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>1958160</v>
-      </c>
-      <c r="B54" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54">
-        <v>7122217</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="C58">
+        <v>7122217</v>
+      </c>
+      <c r="D58" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>26138</v>
+      </c>
+      <c r="G58" t="s">
+        <v>36</v>
+      </c>
+      <c r="H58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>1960525</v>
+      </c>
+      <c r="B59" t="s">
         <v>27</v>
       </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54">
-        <v>319477</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>1957905</v>
-      </c>
-      <c r="B55" t="s">
-        <v>24</v>
-      </c>
-      <c r="C55">
-        <v>7122217</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="C59">
+        <v>7122217</v>
+      </c>
+      <c r="D59" t="s">
+        <v>35</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>78105</v>
+      </c>
+      <c r="G59" t="s">
+        <v>36</v>
+      </c>
+      <c r="H59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <v>1960600</v>
+      </c>
+      <c r="B60" t="s">
         <v>27</v>
       </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55">
-        <v>25802</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>1959198</v>
-      </c>
-      <c r="B56" t="s">
-        <v>25</v>
-      </c>
-      <c r="C56">
-        <v>7122217</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="C60">
+        <v>7122217</v>
+      </c>
+      <c r="D60" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>78105</v>
+      </c>
+      <c r="G60" t="s">
+        <v>36</v>
+      </c>
+      <c r="H60" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>1960443</v>
+      </c>
+      <c r="B61" t="s">
         <v>27</v>
       </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56">
-        <v>62832</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>1958667</v>
-      </c>
-      <c r="B57" t="s">
-        <v>25</v>
-      </c>
-      <c r="C57">
-        <v>7122217</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="C61">
+        <v>7122217</v>
+      </c>
+      <c r="D61" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>26138</v>
+      </c>
+      <c r="G61" t="s">
+        <v>36</v>
+      </c>
+      <c r="H61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62">
+        <v>1959950</v>
+      </c>
+      <c r="B62" t="s">
         <v>27</v>
       </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57">
-        <v>294023</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>1959053</v>
-      </c>
-      <c r="B58" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58">
-        <v>7122217</v>
-      </c>
-      <c r="D58" t="s">
-        <v>27</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58">
-        <v>147722</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>1959115</v>
-      </c>
-      <c r="B59" t="s">
-        <v>25</v>
-      </c>
-      <c r="C59">
-        <v>7122217</v>
-      </c>
-      <c r="D59" t="s">
-        <v>27</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59">
-        <v>247787</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>1958835</v>
-      </c>
-      <c r="B60" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60">
-        <v>7122217</v>
-      </c>
-      <c r="D60" t="s">
-        <v>27</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60">
-        <v>70061</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>1960653</v>
-      </c>
-      <c r="B61" t="s">
-        <v>26</v>
-      </c>
-      <c r="C61">
-        <v>7122217</v>
-      </c>
-      <c r="D61" t="s">
-        <v>27</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61">
-        <v>28295</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>1960600</v>
-      </c>
-      <c r="B62" t="s">
-        <v>26</v>
-      </c>
       <c r="C62">
         <v>7122217</v>
       </c>
       <c r="D62" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62">
-        <v>78105</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>245026</v>
+      </c>
+      <c r="G62" t="s">
+        <v>36</v>
+      </c>
+      <c r="H62" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>1959942</v>
       </c>
       <c r="B63" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C63">
         <v>7122217</v>
       </c>
       <c r="D63" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -1720,125 +2128,1233 @@
       <c r="F63">
         <v>56773</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63" t="s">
+        <v>36</v>
+      </c>
+      <c r="H63" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64">
-        <v>1960298</v>
+        <v>1960653</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C64">
         <v>7122217</v>
       </c>
       <c r="D64" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="F64">
-        <v>290131</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>28295</v>
+      </c>
+      <c r="G64" t="s">
+        <v>36</v>
+      </c>
+      <c r="H64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65">
-        <v>1960064</v>
+        <v>1962645</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C65">
         <v>7122217</v>
       </c>
       <c r="D65" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="F65">
-        <v>280640</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>311085</v>
+      </c>
+      <c r="G65" t="s">
+        <v>36</v>
+      </c>
+      <c r="H65" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66">
-        <v>1960596</v>
+        <v>1962654</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C66">
         <v>7122217</v>
       </c>
       <c r="D66" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66">
-        <v>26138</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>192300</v>
+      </c>
+      <c r="G66" t="s">
+        <v>36</v>
+      </c>
+      <c r="H66" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67">
-        <v>1959950</v>
+        <v>1962445</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C67">
         <v>7122217</v>
       </c>
       <c r="D67" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67">
-        <v>245026</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>247470</v>
+      </c>
+      <c r="G67" t="s">
+        <v>36</v>
+      </c>
+      <c r="H67" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68">
-        <v>1960525</v>
+        <v>1962450</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C68">
         <v>7122217</v>
       </c>
       <c r="D68" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68">
-        <v>78105</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>197429</v>
+      </c>
+      <c r="G68" t="s">
+        <v>36</v>
+      </c>
+      <c r="H68" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69">
-        <v>1960443</v>
+        <v>1962444</v>
       </c>
       <c r="B69" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C69">
         <v>7122217</v>
       </c>
       <c r="D69" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69">
-        <v>26138</v>
+        <v>80291</v>
+      </c>
+      <c r="G69" t="s">
+        <v>36</v>
+      </c>
+      <c r="H69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70">
+        <v>1962442</v>
+      </c>
+      <c r="B70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70">
+        <v>7122217</v>
+      </c>
+      <c r="D70" t="s">
+        <v>35</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>230197</v>
+      </c>
+      <c r="G70" t="s">
+        <v>36</v>
+      </c>
+      <c r="H70" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71">
+        <v>1963340</v>
+      </c>
+      <c r="B71" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71">
+        <v>7122217</v>
+      </c>
+      <c r="D71" t="s">
+        <v>35</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>5972</v>
+      </c>
+      <c r="G71" t="s">
+        <v>36</v>
+      </c>
+      <c r="H71" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72">
+        <v>1962434</v>
+      </c>
+      <c r="B72" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72">
+        <v>7122217</v>
+      </c>
+      <c r="D72" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>281420</v>
+      </c>
+      <c r="G72" t="s">
+        <v>36</v>
+      </c>
+      <c r="H72" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73">
+        <v>1964710</v>
+      </c>
+      <c r="B73" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73">
+        <v>7122217</v>
+      </c>
+      <c r="D73" t="s">
+        <v>35</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>39174</v>
+      </c>
+      <c r="G73" t="s">
+        <v>36</v>
+      </c>
+      <c r="H73" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74">
+        <v>1964715</v>
+      </c>
+      <c r="B74" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74">
+        <v>7122217</v>
+      </c>
+      <c r="D74" t="s">
+        <v>35</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>77319</v>
+      </c>
+      <c r="G74" t="s">
+        <v>36</v>
+      </c>
+      <c r="H74" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75">
+        <v>1966179</v>
+      </c>
+      <c r="B75" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75">
+        <v>7122217</v>
+      </c>
+      <c r="D75" t="s">
+        <v>35</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>53792</v>
+      </c>
+      <c r="G75" t="s">
+        <v>36</v>
+      </c>
+      <c r="H75" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76">
+        <v>1966619</v>
+      </c>
+      <c r="B76" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76">
+        <v>7122217</v>
+      </c>
+      <c r="D76" t="s">
+        <v>35</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>284773</v>
+      </c>
+      <c r="G76" t="s">
+        <v>36</v>
+      </c>
+      <c r="H76" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77">
+        <v>1966174</v>
+      </c>
+      <c r="B77" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77">
+        <v>7122217</v>
+      </c>
+      <c r="D77" t="s">
+        <v>35</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>101371</v>
+      </c>
+      <c r="G77" t="s">
+        <v>36</v>
+      </c>
+      <c r="H77" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78">
+        <v>1966620</v>
+      </c>
+      <c r="B78" t="s">
+        <v>30</v>
+      </c>
+      <c r="C78">
+        <v>7122217</v>
+      </c>
+      <c r="D78" t="s">
+        <v>35</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>204197</v>
+      </c>
+      <c r="G78" t="s">
+        <v>36</v>
+      </c>
+      <c r="H78" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79">
+        <v>1966169</v>
+      </c>
+      <c r="B79" t="s">
+        <v>30</v>
+      </c>
+      <c r="C79">
+        <v>7122217</v>
+      </c>
+      <c r="D79" t="s">
+        <v>35</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>114266</v>
+      </c>
+      <c r="G79" t="s">
+        <v>36</v>
+      </c>
+      <c r="H79" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80">
+        <v>1966180</v>
+      </c>
+      <c r="B80" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80">
+        <v>7122217</v>
+      </c>
+      <c r="D80" t="s">
+        <v>35</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>288425</v>
+      </c>
+      <c r="G80" t="s">
+        <v>36</v>
+      </c>
+      <c r="H80" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81">
+        <v>1965766</v>
+      </c>
+      <c r="B81" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81">
+        <v>7122217</v>
+      </c>
+      <c r="D81" t="s">
+        <v>35</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>80291</v>
+      </c>
+      <c r="G81" t="s">
+        <v>36</v>
+      </c>
+      <c r="H81" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82">
+        <v>1965976</v>
+      </c>
+      <c r="B82" t="s">
+        <v>30</v>
+      </c>
+      <c r="C82">
+        <v>7122217</v>
+      </c>
+      <c r="D82" t="s">
+        <v>35</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>126038</v>
+      </c>
+      <c r="G82" t="s">
+        <v>36</v>
+      </c>
+      <c r="H82" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83">
+        <v>1965567</v>
+      </c>
+      <c r="B83" t="s">
+        <v>30</v>
+      </c>
+      <c r="C83">
+        <v>7122217</v>
+      </c>
+      <c r="D83" t="s">
+        <v>35</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>283207</v>
+      </c>
+      <c r="G83" t="s">
+        <v>36</v>
+      </c>
+      <c r="H83" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84">
+        <v>1965564</v>
+      </c>
+      <c r="B84" t="s">
+        <v>30</v>
+      </c>
+      <c r="C84">
+        <v>7122217</v>
+      </c>
+      <c r="D84" t="s">
+        <v>35</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>283297</v>
+      </c>
+      <c r="G84" t="s">
+        <v>36</v>
+      </c>
+      <c r="H84" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85">
+        <v>1965485</v>
+      </c>
+      <c r="B85" t="s">
+        <v>30</v>
+      </c>
+      <c r="C85">
+        <v>7122217</v>
+      </c>
+      <c r="D85" t="s">
+        <v>35</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>17198</v>
+      </c>
+      <c r="G85" t="s">
+        <v>36</v>
+      </c>
+      <c r="H85" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86">
+        <v>1966625</v>
+      </c>
+      <c r="B86" t="s">
+        <v>30</v>
+      </c>
+      <c r="C86">
+        <v>7122217</v>
+      </c>
+      <c r="D86" t="s">
+        <v>35</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>188542</v>
+      </c>
+      <c r="G86" t="s">
+        <v>36</v>
+      </c>
+      <c r="H86" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87">
+        <v>1966613</v>
+      </c>
+      <c r="B87" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87">
+        <v>7122217</v>
+      </c>
+      <c r="D87" t="s">
+        <v>35</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>13732</v>
+      </c>
+      <c r="G87" t="s">
+        <v>36</v>
+      </c>
+      <c r="H87" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88">
+        <v>1967128</v>
+      </c>
+      <c r="B88" t="s">
+        <v>31</v>
+      </c>
+      <c r="C88">
+        <v>7122217</v>
+      </c>
+      <c r="D88" t="s">
+        <v>35</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>31704</v>
+      </c>
+      <c r="G88" t="s">
+        <v>36</v>
+      </c>
+      <c r="H88" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89">
+        <v>1967833</v>
+      </c>
+      <c r="B89" t="s">
+        <v>31</v>
+      </c>
+      <c r="C89">
+        <v>7122217</v>
+      </c>
+      <c r="D89" t="s">
+        <v>35</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>198790</v>
+      </c>
+      <c r="G89" t="s">
+        <v>36</v>
+      </c>
+      <c r="H89" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90">
+        <v>1967836</v>
+      </c>
+      <c r="B90" t="s">
+        <v>31</v>
+      </c>
+      <c r="C90">
+        <v>7122217</v>
+      </c>
+      <c r="D90" t="s">
+        <v>35</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>258717</v>
+      </c>
+      <c r="G90" t="s">
+        <v>36</v>
+      </c>
+      <c r="H90" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91">
+        <v>1967843</v>
+      </c>
+      <c r="B91" t="s">
+        <v>31</v>
+      </c>
+      <c r="C91">
+        <v>7122217</v>
+      </c>
+      <c r="D91" t="s">
+        <v>35</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>227352</v>
+      </c>
+      <c r="G91" t="s">
+        <v>36</v>
+      </c>
+      <c r="H91" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92">
+        <v>1967846</v>
+      </c>
+      <c r="B92" t="s">
+        <v>31</v>
+      </c>
+      <c r="C92">
+        <v>7122217</v>
+      </c>
+      <c r="D92" t="s">
+        <v>35</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>36779</v>
+      </c>
+      <c r="G92" t="s">
+        <v>36</v>
+      </c>
+      <c r="H92" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93">
+        <v>1967863</v>
+      </c>
+      <c r="B93" t="s">
+        <v>31</v>
+      </c>
+      <c r="C93">
+        <v>7122217</v>
+      </c>
+      <c r="D93" t="s">
+        <v>35</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>244049</v>
+      </c>
+      <c r="G93" t="s">
+        <v>36</v>
+      </c>
+      <c r="H93" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94">
+        <v>1967125</v>
+      </c>
+      <c r="B94" t="s">
+        <v>31</v>
+      </c>
+      <c r="C94">
+        <v>7122217</v>
+      </c>
+      <c r="D94" t="s">
+        <v>35</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>65252</v>
+      </c>
+      <c r="G94" t="s">
+        <v>36</v>
+      </c>
+      <c r="H94" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95">
+        <v>1969298</v>
+      </c>
+      <c r="B95" t="s">
+        <v>32</v>
+      </c>
+      <c r="C95">
+        <v>7122217</v>
+      </c>
+      <c r="D95" t="s">
+        <v>35</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>33853</v>
+      </c>
+      <c r="G95" t="s">
+        <v>36</v>
+      </c>
+      <c r="H95" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96">
+        <v>1969311</v>
+      </c>
+      <c r="B96" t="s">
+        <v>32</v>
+      </c>
+      <c r="C96">
+        <v>7122217</v>
+      </c>
+      <c r="D96" t="s">
+        <v>35</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>38526</v>
+      </c>
+      <c r="G96" t="s">
+        <v>36</v>
+      </c>
+      <c r="H96" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97">
+        <v>1968901</v>
+      </c>
+      <c r="B97" t="s">
+        <v>32</v>
+      </c>
+      <c r="C97">
+        <v>7122217</v>
+      </c>
+      <c r="D97" t="s">
+        <v>35</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>87986</v>
+      </c>
+      <c r="G97" t="s">
+        <v>36</v>
+      </c>
+      <c r="H97" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98">
+        <v>1969384</v>
+      </c>
+      <c r="B98" t="s">
+        <v>32</v>
+      </c>
+      <c r="C98">
+        <v>7122217</v>
+      </c>
+      <c r="D98" t="s">
+        <v>35</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>303671</v>
+      </c>
+      <c r="G98" t="s">
+        <v>37</v>
+      </c>
+      <c r="H98" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99">
+        <v>1969211</v>
+      </c>
+      <c r="B99" t="s">
+        <v>32</v>
+      </c>
+      <c r="C99">
+        <v>7122217</v>
+      </c>
+      <c r="D99" t="s">
+        <v>35</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>63736</v>
+      </c>
+      <c r="G99" t="s">
+        <v>36</v>
+      </c>
+      <c r="H99" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100">
+        <v>1970737</v>
+      </c>
+      <c r="B100" t="s">
+        <v>33</v>
+      </c>
+      <c r="C100">
+        <v>7122217</v>
+      </c>
+      <c r="D100" t="s">
+        <v>35</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>71370</v>
+      </c>
+      <c r="G100" t="s">
+        <v>36</v>
+      </c>
+      <c r="H100" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101">
+        <v>1972879</v>
+      </c>
+      <c r="B101" t="s">
+        <v>34</v>
+      </c>
+      <c r="C101">
+        <v>7122217</v>
+      </c>
+      <c r="D101" t="s">
+        <v>35</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>107552</v>
+      </c>
+      <c r="G101" t="s">
+        <v>36</v>
+      </c>
+      <c r="H101" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102">
+        <v>1973282</v>
+      </c>
+      <c r="B102" t="s">
+        <v>34</v>
+      </c>
+      <c r="C102">
+        <v>7122217</v>
+      </c>
+      <c r="D102" t="s">
+        <v>35</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>316492</v>
+      </c>
+      <c r="G102" t="s">
+        <v>36</v>
+      </c>
+      <c r="H102" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103">
+        <v>1972886</v>
+      </c>
+      <c r="B103" t="s">
+        <v>34</v>
+      </c>
+      <c r="C103">
+        <v>7122217</v>
+      </c>
+      <c r="D103" t="s">
+        <v>35</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>113010</v>
+      </c>
+      <c r="G103" t="s">
+        <v>36</v>
+      </c>
+      <c r="H103" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104">
+        <v>1973943</v>
+      </c>
+      <c r="B104" t="s">
+        <v>34</v>
+      </c>
+      <c r="C104">
+        <v>7122217</v>
+      </c>
+      <c r="D104" t="s">
+        <v>35</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>81496</v>
+      </c>
+      <c r="G104" t="s">
+        <v>36</v>
+      </c>
+      <c r="H104" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105">
+        <v>1973744</v>
+      </c>
+      <c r="B105" t="s">
+        <v>34</v>
+      </c>
+      <c r="C105">
+        <v>7122217</v>
+      </c>
+      <c r="D105" t="s">
+        <v>35</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>110083</v>
+      </c>
+      <c r="G105" t="s">
+        <v>36</v>
+      </c>
+      <c r="H105" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106">
+        <v>1973752</v>
+      </c>
+      <c r="B106" t="s">
+        <v>34</v>
+      </c>
+      <c r="C106">
+        <v>7122217</v>
+      </c>
+      <c r="D106" t="s">
+        <v>35</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>288163</v>
+      </c>
+      <c r="G106" t="s">
+        <v>37</v>
+      </c>
+      <c r="H106" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107">
+        <v>1973154</v>
+      </c>
+      <c r="B107" t="s">
+        <v>34</v>
+      </c>
+      <c r="C107">
+        <v>7122217</v>
+      </c>
+      <c r="D107" t="s">
+        <v>35</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>66776</v>
+      </c>
+      <c r="G107" t="s">
+        <v>36</v>
+      </c>
+      <c r="H107" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108">
+        <v>1973951</v>
+      </c>
+      <c r="B108" t="s">
+        <v>34</v>
+      </c>
+      <c r="C108">
+        <v>7122217</v>
+      </c>
+      <c r="D108" t="s">
+        <v>35</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>313733</v>
+      </c>
+      <c r="G108" t="s">
+        <v>36</v>
+      </c>
+      <c r="H108" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109">
+        <v>1973352</v>
+      </c>
+      <c r="B109" t="s">
+        <v>34</v>
+      </c>
+      <c r="C109">
+        <v>7122217</v>
+      </c>
+      <c r="D109" t="s">
+        <v>35</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>12567</v>
+      </c>
+      <c r="G109" t="s">
+        <v>36</v>
+      </c>
+      <c r="H109" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110">
+        <v>1973275</v>
+      </c>
+      <c r="B110" t="s">
+        <v>34</v>
+      </c>
+      <c r="C110">
+        <v>7122217</v>
+      </c>
+      <c r="D110" t="s">
+        <v>35</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>325823</v>
+      </c>
+      <c r="G110" t="s">
+        <v>36</v>
+      </c>
+      <c r="H110" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
